--- a/Uploads/Download/导入会议人员Excel模板.xlsx
+++ b/Uploads/Download/导入会议人员Excel模板.xlsx
@@ -10,59 +10,12 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>changjie.gao</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica"/>
-          </rPr>
-          <t xml:space="preserve">changjie.gao:
-问题见证表 待补充2015/11/30
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica"/>
-          </rPr>
-          <t xml:space="preserve">changjie.gao:
-问题见证表 待补充2015/11/30
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>品牌*</t>
   </si>
   <si>
-    <t>大区*</t>
-  </si>
-  <si>
-    <t>城市*</t>
-  </si>
-  <si>
-    <t>经销店名称*</t>
-  </si>
-  <si>
     <t>经销店代码*</t>
   </si>
   <si>
@@ -84,9 +37,6 @@
     <t>住宿类型</t>
   </si>
   <si>
-    <t>房型</t>
-  </si>
-  <si>
     <t>入住时间</t>
   </si>
   <si>
@@ -96,15 +46,6 @@
     <t>优衣库</t>
   </si>
   <si>
-    <t>东北</t>
-  </si>
-  <si>
-    <t>白山市</t>
-  </si>
-  <si>
-    <t>吉林宝辉汽车销售服务有限公司白山分公司</t>
-  </si>
-  <si>
     <t>22A21</t>
   </si>
   <si>
@@ -117,9 +58,6 @@
     <t>不住宿</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>2017-01-04</t>
   </si>
   <si>
@@ -132,15 +70,6 @@
     <t>合住</t>
   </si>
   <si>
-    <t>双床</t>
-  </si>
-  <si>
-    <t>辽源市</t>
-  </si>
-  <si>
-    <t>吉林宝辉汽车销售服务有限公司辽源分公司</t>
-  </si>
-  <si>
     <t>22A22</t>
   </si>
   <si>
@@ -148,15 +77,6 @@
   </si>
   <si>
     <t>单住</t>
-  </si>
-  <si>
-    <t>大床</t>
-  </si>
-  <si>
-    <t>吉林市</t>
-  </si>
-  <si>
-    <t>吉林市成邦汽车销售服务有限公司</t>
   </si>
   <si>
     <t>22B10</t>
@@ -172,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -198,11 +118,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -224,11 +139,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -244,6 +170,19 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
@@ -280,13 +219,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,17 +325,50 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -334,10 +393,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,17 +588,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -571,10 +626,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -822,12 +877,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1114,7 +1169,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1142,10 +1197,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1396,212 +1451,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5781" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7344" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.2891" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2891" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.2891" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.2891" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1562" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1562" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1562" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.1562" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.1562" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.1562" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1562" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1562" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1562" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1562" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="11" max="256" width="8.73438" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" t="s" s="5">
         <v>9</v>
-      </c>
-      <c r="K1" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="3">
-        <v>13</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7">
+        <v>18504390720</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="I2" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="J2" t="s" s="8">
         <v>16</v>
-      </c>
-      <c r="D2" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5">
-        <v>18504390720</v>
-      </c>
-      <c r="H2" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s" s="6">
-        <v>24</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s" s="6">
+      <c r="A3" s="8"/>
+      <c r="B3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="D3" s="9">
+        <v>18504390718</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="F3" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7">
-        <v>18504390718</v>
-      </c>
-      <c r="H3" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="A4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9">
         <v>18684378959</v>
       </c>
-      <c r="H4" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="E4" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9">
         <v>13039264407</v>
       </c>
-      <c r="H5" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="E5" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,7 +1662,5 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>